--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T09:46:20+00:00</t>
+    <t>2023-02-18T10:13:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T10:13:11+00:00</t>
+    <t>2023-02-18T11:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T11:17:38+00:00</t>
+    <t>2023-02-18T14:27:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-18T14:27:51+00:00</t>
+    <t>2023-02-21T11:45:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T11:45:55+00:00</t>
+    <t>2023-02-21T13:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T13:35:57+00:00</t>
+    <t>2023-02-21T14:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T14:10:21+00:00</t>
+    <t>2023-02-22T13:02:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T13:02:41+00:00</t>
+    <t>2023-02-22T15:15:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:15:41+00:00</t>
+    <t>2023-02-22T15:26:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:26:08+00:00</t>
+    <t>2023-02-22T15:39:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-22T15:39:39+00:00</t>
+    <t>2023-02-23T08:27:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:27:18+00:00</t>
+    <t>2023-02-23T13:59:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T13:59:47+00:00</t>
+    <t>2023-02-23T14:48:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T14:48:28+00:00</t>
+    <t>2023-02-24T11:38:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T11:38:09+00:00</t>
+    <t>2023-02-24T14:30:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T14:30:46+00:00</t>
+    <t>2023-02-27T07:31:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The test sample that was collected for the initiated lab order</t>
+    <t>The test sample that was collected for the initiated lab order.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:31:33+00:00</t>
+    <t>2023-02-27T08:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T08:19:52+00:00</t>
+    <t>2023-02-27T11:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:03:37+00:00</t>
+    <t>2023-02-27T11:43:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T11:43:01+00:00</t>
+    <t>2023-02-28T11:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T11:30:20+00:00</t>
+    <t>2023-03-01T12:32:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T12:32:05+00:00</t>
+    <t>2023-03-01T13:09:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-01T13:09:29+00:00</t>
+    <t>2023-03-02T06:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:11:53+00:00</t>
+    <t>2023-03-02T07:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T07:03:01+00:00</t>
+    <t>2023-03-02T10:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T10:01:05+00:00</t>
+    <t>2023-03-02T11:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T11:57:08+00:00</t>
+    <t>2023-03-02T16:08:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T16:08:14+00:00</t>
+    <t>2023-03-03T12:35:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2910,7 +2910,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>84</v>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:35:01+00:00</t>
+    <t>2023-03-03T12:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:56:42+00:00</t>
+    <t>2023-03-03T14:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T14:58:49+00:00</t>
+    <t>2023-03-03T15:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:51:33+00:00</t>
+    <t>2023-03-04T08:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T08:23:50+00:00</t>
+    <t>2023-03-05T11:45:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T11:45:33+00:00</t>
+    <t>2023-03-06T07:25:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T07:25:44+00:00</t>
+    <t>2023-03-06T13:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:23:19+00:00</t>
+    <t>2023-03-06T13:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="490">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:58:50+00:00</t>
+    <t>2023-03-07T12:18:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -465,6 +465,13 @@
     <t>Id for specimen.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:system}
+</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
+  </si>
+  <si>
     <t>.id</t>
   </si>
   <si>
@@ -474,58 +481,499 @@
     <t>SPM-2</t>
   </si>
   <si>
-    <t>Specimen.accessionIdentifier</t>
-  </si>
-  <si>
-    <t>Identifier assigned by the lab</t>
-  </si>
-  <si>
-    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
-  </si>
-  <si>
-    <t>SPM-30 (v2.7+)</t>
-  </si>
-  <si>
-    <t>Specimen.status</t>
-  </si>
-  <si>
-    <t>available | unavailable | unsatisfactory | entered-in-error</t>
-  </si>
-  <si>
-    <t>The availability of the specimen.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+    <t>Specimen.identifier:USID</t>
+  </si>
+  <si>
+    <t>USID</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.id</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.extension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.use</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Codes providing the status/availability of a specimen.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>SPM-20</t>
-  </si>
-  <si>
-    <t>Specimen.type</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.id</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.extension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.id</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.system</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.version</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.code</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.display</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.type.text</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.system</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://openhie.org/fhir/hiv-cbs/identifier/specimen-id</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.value</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.period</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Specimen.identifier:USID.assigner</t>
+  </si>
+  <si>
+    <t>Specimen.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Specimen.accessionIdentifier</t>
+  </si>
+  <si>
+    <t>Identifier assigned by the lab</t>
+  </si>
+  <si>
+    <t>The identifier assigned by the lab when accessioning specimen(s). This is not necessarily the same as the specimen identifier, depending on local lab procedures.</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SBJ].act[classCode=ACSN, moodCode=EVN].id</t>
+  </si>
+  <si>
+    <t>SPM-30 (v2.7+)</t>
+  </si>
+  <si>
+    <t>Specimen.status</t>
+  </si>
+  <si>
+    <t>available | unavailable | unsatisfactory | entered-in-error</t>
+  </si>
+  <si>
+    <t>The availability of the specimen.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Codes providing the status/availability of a specimen.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/specimen-status|4.0.1</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>SPM-20</t>
+  </si>
+  <si>
+    <t>Specimen.type</t>
+  </si>
+  <si>
     <t>Kind of material that forms the specimen</t>
   </si>
   <si>
@@ -657,29 +1105,7 @@
     <t>Specimen.collection.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Specimen.collection.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Specimen.collection.modifierExtension</t>
@@ -849,9 +1275,6 @@
   </si>
   <si>
     <t>Many diagnostic tests require fasting  to facilitate accurate interpretation.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Codes describing the fasting status of the patient.</t>
@@ -1403,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM50"/>
+  <dimension ref="A1:AM70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1413,7 +1836,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="37.796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.8203125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="18.265625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1431,23 +1854,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.8984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="55.6953125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="36.70703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.94921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="54.51171875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2584,7 +3007,7 @@
         <v>84</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>76</v>
@@ -2641,16 +3064,14 @@
         <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>141</v>
@@ -2668,29 +3089,31 @@
         <v>96</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>84</v>
@@ -2708,10 +3131,10 @@
         <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2762,13 +3185,13 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>76</v>
@@ -2777,18 +3200,18 @@
         <v>96</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>153</v>
@@ -2808,23 +3231,21 @@
         <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="N13" t="s" s="2">
         <v>156</v>
       </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>76</v>
@@ -2849,71 +3270,71 @@
         <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AG13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>160</v>
-      </c>
       <c r="AL13" t="s" s="2">
-        <v>161</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>76</v>
@@ -2922,19 +3343,19 @@
         <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2960,58 +3381,60 @@
         <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3019,7 +3442,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>84</v>
@@ -3028,23 +3451,25 @@
         <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>169</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>170</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>76</v>
@@ -3069,13 +3494,13 @@
         <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>76</v>
@@ -3093,7 +3518,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3108,21 +3533,21 @@
         <v>96</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3145,16 +3570,20 @@
         <v>85</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
       </c>
@@ -3178,13 +3607,13 @@
         <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>185</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>76</v>
@@ -3202,7 +3631,7 @@
         <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3217,21 +3646,21 @@
         <v>96</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3242,7 +3671,7 @@
         <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>76</v>
@@ -3254,17 +3683,15 @@
         <v>76</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3313,22 +3740,22 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>76</v>
@@ -3339,14 +3766,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3365,16 +3792,16 @@
         <v>76</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>130</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>131</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3412,19 +3839,19 @@
         <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3436,24 +3863,24 @@
         <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3464,7 +3891,7 @@
         <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>76</v>
@@ -3473,19 +3900,23 @@
         <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
       </c>
@@ -3539,7 +3970,7 @@
         <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>76</v>
@@ -3548,21 +3979,21 @@
         <v>96</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3585,13 +4016,13 @@
         <v>76</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3642,7 +4073,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3657,7 +4088,7 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>76</v>
@@ -3668,10 +4099,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3700,7 +4131,7 @@
         <v>131</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>133</v>
@@ -3741,19 +4172,19 @@
         <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>162</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3768,7 +4199,7 @@
         <v>135</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>76</v>
@@ -3779,45 +4210,45 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>139</v>
+        <v>212</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>76</v>
@@ -3827,7 +4258,7 @@
         <v>76</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>213</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>76</v>
@@ -3866,36 +4297,36 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>127</v>
+        <v>215</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3918,15 +4349,17 @@
         <v>85</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="N23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>76</v>
@@ -3975,7 +4408,7 @@
         <v>76</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -3990,21 +4423,21 @@
         <v>96</v>
       </c>
       <c r="AK23" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4012,7 +4445,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>84</v>
@@ -4027,16 +4460,18 @@
         <v>85</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>76</v>
       </c>
@@ -4045,7 +4480,7 @@
         <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>76</v>
@@ -4072,17 +4507,19 @@
         <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4097,31 +4534,29 @@
         <v>96</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AM24" t="s" s="2">
-        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>84</v>
@@ -4136,16 +4571,18 @@
         <v>85</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>76</v>
       </c>
@@ -4193,7 +4630,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4208,21 +4645,21 @@
         <v>96</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4245,16 +4682,20 @@
         <v>85</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>76</v>
       </c>
@@ -4302,7 +4743,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4317,21 +4758,21 @@
         <v>96</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>249</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>233</v>
+        <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>76</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4351,19 +4792,23 @@
         <v>76</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>76</v>
       </c>
@@ -4411,7 +4856,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4426,21 +4871,21 @@
         <v>96</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4448,7 +4893,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>84</v>
@@ -4460,31 +4905,35 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>76</v>
@@ -4496,13 +4945,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4520,7 +4969,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4535,21 +4984,21 @@
         <v>96</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>254</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4557,7 +5006,7 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>84</v>
@@ -4569,19 +5018,19 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4595,7 +5044,7 @@
         <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>276</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>76</v>
@@ -4607,13 +5056,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>260</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4631,7 +5080,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4646,21 +5095,21 @@
         <v>96</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>262</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4683,20 +5132,16 @@
         <v>85</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
       </c>
@@ -4720,13 +5165,13 @@
         <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>270</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>76</v>
@@ -4744,7 +5189,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4759,21 +5204,21 @@
         <v>96</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>286</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>272</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4784,7 +5229,7 @@
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4793,18 +5238,20 @@
         <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>201</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4853,13 +5300,13 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
@@ -4868,21 +5315,21 @@
         <v>96</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4902,16 +5349,16 @@
         <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>207</v>
+        <v>142</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>209</v>
+        <v>299</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4962,7 +5409,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -4974,56 +5421,56 @@
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>211</v>
+        <v>300</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>301</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>131</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>213</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>133</v>
+        <v>305</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5049,13 +5496,13 @@
         <v>76</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>306</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>307</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>76</v>
@@ -5073,72 +5520,70 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>309</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>216</v>
+        <v>76</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>85</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>217</v>
+        <v>312</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>218</v>
+        <v>313</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>76</v>
       </c>
@@ -5162,13 +5607,11 @@
         <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="Y34" s="2"/>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>315</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>76</v>
@@ -5186,36 +5629,36 @@
         <v>76</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>318</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5223,7 +5666,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>84</v>
@@ -5235,19 +5678,21 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>76</v>
       </c>
@@ -5295,7 +5740,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5310,10 +5755,10 @@
         <v>96</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>325</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>76</v>
@@ -5321,10 +5766,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5344,16 +5789,16 @@
         <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5380,13 +5825,13 @@
         <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>287</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>76</v>
@@ -5404,7 +5849,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5419,21 +5864,21 @@
         <v>96</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>169</v>
+        <v>330</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>331</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5456,15 +5901,17 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>290</v>
+        <v>334</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>291</v>
+        <v>335</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>337</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5513,7 +5960,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>289</v>
+        <v>333</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5528,21 +5975,21 @@
         <v>96</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5553,7 +6000,7 @@
         <v>77</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>76</v>
@@ -5565,15 +6012,17 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>342</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>76</v>
@@ -5622,13 +6071,13 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>76</v>
@@ -5637,21 +6086,21 @@
         <v>96</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>232</v>
+        <v>344</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5662,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5674,13 +6123,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>349</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5731,13 +6180,13 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>299</v>
+        <v>347</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
@@ -5746,21 +6195,21 @@
         <v>96</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>302</v>
+        <v>351</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5783,13 +6232,13 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>207</v>
+        <v>154</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>208</v>
+        <v>155</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5840,7 +6289,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -5855,7 +6304,7 @@
         <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>76</v>
@@ -5866,10 +6315,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>304</v>
+        <v>354</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5898,7 +6347,7 @@
         <v>131</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>133</v>
@@ -5951,7 +6400,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -5966,7 +6415,7 @@
         <v>135</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>76</v>
@@ -5977,14 +6426,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>305</v>
+        <v>355</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>216</v>
+        <v>356</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6006,10 +6455,10 @@
         <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>217</v>
+        <v>357</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>133</v>
@@ -6064,7 +6513,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>219</v>
+        <v>359</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6090,10 +6539,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6104,7 +6553,7 @@
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>76</v>
@@ -6116,13 +6565,13 @@
         <v>85</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>142</v>
+        <v>361</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>307</v>
+        <v>362</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>308</v>
+        <v>363</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6173,13 +6622,13 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>360</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>76</v>
@@ -6188,21 +6637,21 @@
         <v>96</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>145</v>
+        <v>364</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>309</v>
+        <v>366</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6210,7 +6659,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>84</v>
@@ -6222,16 +6671,16 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>207</v>
+        <v>327</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>311</v>
+        <v>368</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>312</v>
+        <v>369</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6270,19 +6719,17 @@
         <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>371</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>310</v>
+        <v>367</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6297,29 +6744,31 @@
         <v>96</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>314</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>367</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="D45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>84</v>
@@ -6331,16 +6780,16 @@
         <v>76</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>327</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>316</v>
+        <v>369</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6367,13 +6816,13 @@
         <v>76</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>250</v>
+        <v>76</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>76</v>
@@ -6391,7 +6840,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>314</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6406,21 +6855,21 @@
         <v>96</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>169</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>319</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6440,16 +6889,16 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>242</v>
+        <v>378</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>321</v>
+        <v>379</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>322</v>
+        <v>380</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6500,7 +6949,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6515,21 +6964,21 @@
         <v>96</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>323</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>373</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6552,13 +7001,13 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>242</v>
+        <v>382</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>326</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>327</v>
+        <v>384</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6609,7 +7058,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6624,21 +7073,21 @@
         <v>96</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>329</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6661,13 +7110,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>332</v>
+        <v>388</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>333</v>
+        <v>389</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6694,13 +7143,13 @@
         <v>76</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>250</v>
+        <v>390</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>76</v>
@@ -6718,7 +7167,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -6733,21 +7182,21 @@
         <v>96</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>336</v>
+        <v>393</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>337</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6758,7 +7207,7 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6767,23 +7216,21 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>339</v>
+        <v>396</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
       </c>
@@ -6807,13 +7254,13 @@
         <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>343</v>
+        <v>399</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>76</v>
@@ -6831,13 +7278,13 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>338</v>
+        <v>395</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
@@ -6846,21 +7293,21 @@
         <v>96</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>401</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>345</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6880,19 +7327,23 @@
         <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>347</v>
+        <v>404</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>50</v>
+        <v>405</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -6916,13 +7367,13 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>409</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>410</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
@@ -6940,13 +7391,13 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>346</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
@@ -6955,13 +7406,2209 @@
         <v>96</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>349</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>350</v>
+        <v>411</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:18:55+00:00</t>
+    <t>2023-03-07T17:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T17:18:24+00:00</t>
+    <t>2023-03-08T14:44:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T14:44:18+00:00</t>
+    <t>2023-03-08T15:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-08T15:59:39+00:00</t>
+    <t>2023-03-09T11:23:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/master/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T11:23:43+00:00</t>
+    <t>2023-04-04T11:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
